--- a/SiAOD 1/tests.xlsx
+++ b/SiAOD 1/tests.xlsx
@@ -225,11 +225,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="126323400"/>
-        <c:axId val="126323792"/>
+        <c:axId val="190398368"/>
+        <c:axId val="190401504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126323400"/>
+        <c:axId val="190398368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -272,7 +272,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126323792"/>
+        <c:crossAx val="190401504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -280,7 +280,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126323792"/>
+        <c:axId val="190401504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -331,7 +331,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126323400"/>
+        <c:crossAx val="190398368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -589,19 +589,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5050</c:v>
+                  <c:v>10100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500500</c:v>
+                  <c:v>1001000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50005000</c:v>
+                  <c:v>100010000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000050000</c:v>
+                  <c:v>10000100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000500000</c:v>
+                  <c:v>1000001000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -617,11 +617,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="126321440"/>
-        <c:axId val="126322616"/>
+        <c:axId val="190405032"/>
+        <c:axId val="190398760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126321440"/>
+        <c:axId val="190405032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -664,7 +664,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126322616"/>
+        <c:crossAx val="190398760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -672,7 +672,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126322616"/>
+        <c:axId val="190398760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -723,7 +723,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126321440"/>
+        <c:crossAx val="190405032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2244,7 +2244,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2279,7 +2279,7 @@
         <v>10000</v>
       </c>
       <c r="D2" s="1">
-        <v>5050</v>
+        <v>10100</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2294,7 +2294,7 @@
         <v>1000000</v>
       </c>
       <c r="D3" s="1">
-        <v>500500</v>
+        <v>1001000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2309,7 +2309,7 @@
         <v>100000000</v>
       </c>
       <c r="D4" s="1">
-        <v>50005000</v>
+        <v>100010000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2324,7 +2324,7 @@
         <v>10000000000</v>
       </c>
       <c r="D5" s="1">
-        <v>5000050000</v>
+        <v>10000100000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2339,7 +2339,7 @@
         <v>1000000000000</v>
       </c>
       <c r="D6" s="1">
-        <v>500000500000</v>
+        <v>1000001000000</v>
       </c>
     </row>
   </sheetData>
